--- a/src/test/resources/auto-test-resources/webflux-demo-unit-resources.xlsx
+++ b/src/test/resources/auto-test-resources/webflux-demo-unit-resources.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="1cF+xxUSnKqLXpq6zrjGyt5OUBROt+UaeN+HHwXU74A="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="avhgI7BGud10LRhXcOiJBF2qs/0CbhkAvjZjHORM9ck="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4928" uniqueCount="1012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5198" uniqueCount="1092">
   <si>
     <t>Class</t>
   </si>
@@ -3456,6 +3456,282 @@
   <si>
     <t>setAdult
 (Ljava/lang/Boolean;)V</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.SealedClassController</t>
+  </si>
+  <si>
+    <t>getAllVehicles
+()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/sealedKeywordUsage/Vehicle;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"model":"string"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"4b503bb8-843b-4e41-8861-c5c671b6af55","name":"mock response for call to vehicleComponent.getVehicles","fieldTypeName":"org.unlogged.springwebfluxdemo.component.VehicleComponent","sourceClassName":"org.unlogged.springwebfluxdemo.controller.SealedClassController","fieldName":"vehicleComponent","methodName":"getVehicles","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"model\": \"string\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.sealedKeywordUsage.Vehicle&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.component.VehicleComponent#getVehicles#()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/sealedKeywordUsage/Vehicle;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getAllVehicles2
+()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/VehicleInfoModel;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"model":"string","type":"General Vehicle","extendedType":null}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.UserController</t>
+  </si>
+  <si>
+    <t>getAllUsers
+()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"string","name":"string","email":"string","password":"string","age":0}]</t>
+  </si>
+  <si>
+    <t>[{"id":"e40cf8a8-9488-4a6a-b929-2d9a4a53a694","name":"mock response for call to userService.getAllUsers","fieldTypeName":"org.unlogged.springwebfluxdemo.service.UserService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.UserController","fieldName":"userService","methodName":"getAllUsers","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\": \"string\", \"name\": \"string\", \"email\": \"string\", \"password\": \"string\", \"age\": \"0\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.model.dto.UserDto&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.UserService#getAllUsers#()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getUserById
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/springframework/http/ResponseEntity&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.String : "string"
+]</t>
+  </si>
+  <si>
+    <t>{"headers":{},"body":{"id":"string","name":"string","email":"string","password":"string","age":0},"status":"OK"}</t>
+  </si>
+  <si>
+    <t>[{"id":"d1e854fe-eeac-45be-92d3-7d5deb425779","name":"mock response for call to userService.getUserById","fieldTypeName":"org.unlogged.springwebfluxdemo.service.UserService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.UserController","fieldName":"userService","methodName":"getUserById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"email\": \"string\", \"password\": \"string\", \"age\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.dto.UserDto&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.UserService#getUserById#(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>createUser
+(Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;</t>
+  </si>
+  <si>
+    <t>[org.unlogged.springwebfluxdemo.model.dto.UserDto : {"id":"string","name":"string","email":"string","password":"string","age":"0"}
+]</t>
+  </si>
+  <si>
+    <t>{"id":"string","name":"string","email":"string","password":"string","age":0}</t>
+  </si>
+  <si>
+    <t>[{"id":"722cda39-f2e7-4657-8cc8-07754db93948","name":"mock response for call to userService.createUser","fieldTypeName":"org.unlogged.springwebfluxdemo.service.UserService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.UserController","fieldName":"userService","methodName":"createUser","whenParameter":[{"name":"userDto","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.dto.UserDto"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"email\": \"string\", \"password\": \"string\", \"age\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.dto.UserDto&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.UserService#createUser#(Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>updateUser
+(Ljava/lang/String;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;)Lreactor/core/publisher/Mono&lt;Lorg/springframework/http/ResponseEntity&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.String : "string"
+, org.unlogged.springwebfluxdemo.model.dto.UserDto : {"id":"string","name":"string","email":"string","password":"string","age":"0"}
+]</t>
+  </si>
+  <si>
+    <t>{"headers":{},"body":{"id":"m","name":"string","email":"string","password":"string","age":0},"status":"OK"}</t>
+  </si>
+  <si>
+    <t>[{"id":"41a5c352-137d-4c5e-be29-79e7428efca2","name":"mock response for call to userService.updateUser","fieldTypeName":"org.unlogged.springwebfluxdemo.service.UserService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.UserController","fieldName":"userService","methodName":"updateUser","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"},{"name":"userDto","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.dto.UserDto"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"m\",\"name\":\"string\",\"email\":\"string\",\"password\":\"string\",\"age\":\"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.dto.UserDto&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.UserService#updateUser#(Ljava/lang/String;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/dto/UserDto;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>deleteUser
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/springframework/http/ResponseEntity&lt;Ljava/lang/Void;&gt;;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"6f9e5f2e-ff35-4f9b-88d4-fbc03422f4ed","name":"mock response for call to userService.deleteUser","fieldTypeName":"org.unlogged.springwebfluxdemo.service.UserService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.UserController","fieldName":"userService","methodName":"deleteUser","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Void&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.UserService#deleteUser#(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Void;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.WeatherController</t>
+  </si>
+  <si>
+    <t>getWeather
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/weather/WeatherInfo;&gt;;</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"string","region":"string","country":"string","lat":0.0,"lon":0.0,"tz_id":"string","localtime_epoch":0,"localtime":"string"},"current":{"temp_c":0.0,"temp_f":0.0,"is_day":0,"condition":{"text":"string","icon":"string","code":0},"wind_mph":0.0,"wind_kph":0.0,"wind_degree":0,"wind_dir":"string","pressure_mb":0.0,"pressure_in":0.0,"precip_mm":0.0,"precip_in":0.0,"humidity":0,"cloud":0,"feelslike_c":0.0,"feelslike_f":0.0,"vis_km":0.0,"vis_miles":0.0,"uv":0.0,"gust_mph":0.0,"gust_kph":0.0}}</t>
+  </si>
+  <si>
+    <t>[{"id":"edae508c-93be-4d75-aba9-2f1caefda007","name":"mock response for call to weatherService.getWeatherForAddress","fieldTypeName":"org.unlogged.springwebfluxdemo.service.WeatherService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.WeatherController","fieldName":"weatherService","methodName":"getWeatherForAddress","whenParameter":[{"name":"address","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"location\": {\"name\": \"string\", \"region\": \"string\", \"country\": \"string\", \"lat\": \"0\", \"lon\": \"0\", \"tz_id\": \"string\", \"localtime_epoch\": \"0\", \"localtime\": \"string\"}, \"current\": {\"temp_c\": \"0\", \"temp_f\": \"0\", \"is_day\": \"0\", \"condition\": {\"text\": \"string\", \"icon\": \"string\", \"code\": \"0\"}, \"wind_mph\": \"0\", \"wind_kph\": \"0\", \"wind_degree\": \"0\", \"wind_dir\": \"string\", \"pressure_mb\": \"0\", \"pressure_in\": \"0\", \"precip_mm\": \"0\", \"precip_in\": \"0\", \"humidity\": \"0\", \"cloud\": \"0\", \"feelslike_c\": \"0\", \"feelslike_f\": \"0\", \"vis_km\": \"0\", \"vis_miles\": \"0\", \"uv\": \"0\", \"gust_mph\": \"0\", \"gust_kph\": \"0\"}}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.weather.WeatherInfo&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.WeatherService#getWeatherForAddress#(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/weather/WeatherInfo;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.service.WeatherService</t>
+  </si>
+  <si>
+    <t>getWeatherInfo
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Ljava/lang/String;&gt;;</t>
+  </si>
+  <si>
+    <t>{"location":{"name":"String Prairie","region":"Texas","country":"United States of America","lat":29.89,"lon":-97.35,"tz_id":"America/Chicago","localtime_epoch":1719232575,"localtime":"2024-06-24 7:36"},"current":{"temp_c":25.1,"temp_f":77.2,"is_day":1,"condition":{"text":"Sunny","icon":"//cdn.weatherapi.com/weather/64x64/day/113.png","code":1000},"wind_mph":2.2,"wind_kph":3.6,"wind_degree":10,"wind_dir":"N","pressure_mb":1014.0,"pressure_in":29.93,"precip_mm":0.0,"precip_in":0.0,"humidity":100,"cloud":0,"feelslike_c":28.6,"feelslike_f":83.4,"vis_km":14.0,"vis_miles":8.0,"uv":5.0,"gust_mph":6.8,"gust_kph":10.9}}</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.RecursiveController</t>
+  </si>
+  <si>
+    <t>factorial
+(Ljava/lang/Integer;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Integer;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.Integer : "0"
+]</t>
+  </si>
+  <si>
+    <t>[{"id":"46bd37ab-50d5-4b7d-b335-684642810164","name":"mock response for call to recursiveService.factorial","fieldTypeName":"org.unlogged.springwebfluxdemo.service.RecursiveService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.RecursiveController","fieldName":"recursiveService","methodName":"factorial","whenParameter":[{"name":"number","type":"ANY_OF_TYPE","value":"java.lang.Integer"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Integer&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.RecursiveService#factorial#(Ljava/lang/Integer;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Integer;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>nthFibonacci
+(I)Lreactor/core/publisher/Mono&lt;Ljava/lang/Long;&gt;;</t>
+  </si>
+  <si>
+    <t>[int : "0"
+]</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>[{"id":"f4624651-2244-4efc-8a18-752f737d1bae","name":"mock response for call to recursiveService.nthFibonacci","fieldTypeName":"org.unlogged.springwebfluxdemo.service.RecursiveService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.RecursiveController","fieldName":"recursiveService","methodName":"nthFibonacci","whenParameter":[{"name":"n","type":"ANY_OF_TYPE","value":"int"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"99\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Long&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.RecursiveService#nthFibonacci#(I)Lreactor/core/publisher/Mono&lt;Ljava/lang/Long;&gt;;"},{"id":"46bd37ab-50d5-4b7d-b335-684642810164","name":"mock response for call to recursiveService.factorial","fieldTypeName":"org.unlogged.springwebfluxdemo.service.RecursiveService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.RecursiveController","fieldName":"recursiveService","methodName":"factorial","whenParameter":[{"name":"number","type":"ANY_OF_TYPE","value":"java.lang.Integer"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Integer&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.RecursiveService#factorial#(Ljava/lang/Integer;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Integer;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.ProductController</t>
+  </si>
+  <si>
+    <t>createProduct
+(Lorg/unlogged/springwebfluxdemo/model/Product;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;</t>
+  </si>
+  <si>
+    <t>[org.unlogged.springwebfluxdemo.model.Product : {"id":"string","name":"string","price":"0"}
+]</t>
+  </si>
+  <si>
+    <t>{"id":"m","name":"string","price":0.0}</t>
+  </si>
+  <si>
+    <t>[{"id":"29c60547-9614-41fb-a497-7cff4e39f31a","name":"mock response for call to productService.createProduct","fieldTypeName":"org.unlogged.springwebfluxdemo.service.ProductService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.ProductController","fieldName":"productService","methodName":"createProduct","whenParameter":[{"name":"product","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Product"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"m\",\"name\":\"string\",\"price\":\"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.ProductService#createProduct#(Lorg/unlogged/springwebfluxdemo/model/Product;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getProductById
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;</t>
+  </si>
+  <si>
+    <t>{"id":"string","name":"string","price":0.0}</t>
+  </si>
+  <si>
+    <t>[{"id":"f58941bb-e8a8-403d-bc3e-713a1d6e2d25","name":"mock response for call to productService.getProductById","fieldTypeName":"org.unlogged.springwebfluxdemo.service.ProductService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.ProductController","fieldName":"productService","methodName":"getProductById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.ProductService#getProductById#(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getAllProducts
+()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"string","name":"string","price":0.0}]</t>
+  </si>
+  <si>
+    <t>[{"id":"d2f073bd-2d2b-4765-a35f-1dc04db5082e","name":"mock response for call to productService.getAllProducts","fieldTypeName":"org.unlogged.springwebfluxdemo.service.ProductService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.ProductController","fieldName":"productService","methodName":"getAllProducts","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.ProductService#getAllProducts#()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>updateProduct
+(Ljava/lang/String;Lorg/unlogged/springwebfluxdemo/model/Product;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.String : "string"
+, org.unlogged.springwebfluxdemo.model.Product : {"id":"string","name":"string","price":"0"}
+]</t>
+  </si>
+  <si>
+    <t>[{"id":"50d2a3c3-38be-4513-8936-df6148046204","name":"mock response for call to productService.updateProduct","fieldTypeName":"org.unlogged.springwebfluxdemo.service.ProductService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.ProductController","fieldName":"productService","methodName":"updateProduct","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"},{"name":"product","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Product"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.ProductService#updateProduct#(Ljava/lang/String;Lorg/unlogged/springwebfluxdemo/model/Product;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Product;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>deleteProduct
+(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Void;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"ff995a42-c1c1-4e4a-a562-1b9574519aac","name":"mock response for call to productService.deleteProduct","fieldTypeName":"org.unlogged.springwebfluxdemo.service.ProductService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.ProductController","fieldName":"productService","methodName":"deleteProduct","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Void&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.ProductService#deleteProduct#(Ljava/lang/String;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Void;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.controller.PlayerController</t>
+  </si>
+  <si>
+    <t>createPlayer
+(Lorg/unlogged/springwebfluxdemo/model/Player;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;</t>
+  </si>
+  <si>
+    <t>[org.unlogged.springwebfluxdemo.model.Player : {"id":"0","name":"string","age":"0"}
+]</t>
+  </si>
+  <si>
+    <t>{"id":0,"name":"string","age":0}</t>
+  </si>
+  <si>
+    <t>[{"id":"41d1303a-775b-42a5-89c5-4c5372ed0dbc","name":"mock response for call to playerService.createPlayer","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"createPlayer","whenParameter":[{"name":"player","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Player"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"0\", \"name\": \"string\", \"age\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#createPlayer#(Lorg/unlogged/springwebfluxdemo/model/Player;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>batchInsertProducts
+(Ljava/util/List&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;)Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.util.List : [{"id":"0","name":"string","age":"0"}]
+]</t>
+  </si>
+  <si>
+    <t>[{"id":0,"name":"string","age":0}]</t>
+  </si>
+  <si>
+    <t>[{"id":"87f18a62-fda6-4e7f-bb0d-ad1ea8005f45","name":"mock response for call to playerService.saveAll","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"saveAll","whenParameter":[{"name":"players","type":"ANY_OF_TYPE","value":"java.util.List&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\": \"0\", \"name\": \"string\", \"age\": \"0\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#saveAll#(Ljava/util/List&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;)Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getAllPlayers
+()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"d12bce27-6ac3-4e4b-834f-e57f9061b122","name":"mock response for call to playerService.getAllPlayers","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"getAllPlayers","whenParameter":[],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\": \"0\", \"name\": \"string\", \"age\": \"0\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#getAllPlayers#()Lreactor/core/publisher/Flux&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>getPlayerById
+(Ljava/lang/Long;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.Long : "0"
+]</t>
+  </si>
+  <si>
+    <t>[{"id":"f0a84fda-4adc-4c63-93b0-93af3f5a3d8a","name":"mock response for call to playerService.getPlayerById","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"getPlayerById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.Long"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"0\", \"name\": \"string\", \"age\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#getPlayerById#(Ljava/lang/Long;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>updatePlayer
+(Ljava/lang/Long;Lorg/unlogged/springwebfluxdemo/model/Player;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;</t>
+  </si>
+  <si>
+    <t>[java.lang.Long : "0"
+, org.unlogged.springwebfluxdemo.model.Player : {"id":"0","name":"string","age":"0"}
+]</t>
+  </si>
+  <si>
+    <t>[{"id":"2f1f3924-05e6-4c6c-8f92-997c3e001d79","name":"mock response for call to playerService.updatePlayer","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"updatePlayer","whenParameter":[{"name":"player","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Player"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"0\", \"name\": \"string\", \"age\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Player&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#updatePlayer#(Lorg/unlogged/springwebfluxdemo/model/Player;)Lreactor/core/publisher/Mono&lt;Lorg/unlogged/springwebfluxdemo/model/Player;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>deletePlayerById
+(Ljava/lang/Long;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Void;&gt;;</t>
+  </si>
+  <si>
+    <t>[{"id":"f4f91ad7-9dec-47cc-bd28-2c30f376b372","name":"mock response for call to playerService.deletePlayerById","fieldTypeName":"org.unlogged.springwebfluxdemo.service.PlayerService","sourceClassName":"org.unlogged.springwebfluxdemo.controller.PlayerController","fieldName":"playerService","methodName":"deletePlayerById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.Long"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"\"0\"","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;java.lang.Void&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.unlogged.springwebfluxdemo.service.PlayerService#deletePlayerById#(Ljava/lang/Long;)Lreactor/core/publisher/Mono&lt;Ljava/lang/Void;&gt;;"}]</t>
+  </si>
+  <si>
+    <t>org.unlogged.springwebfluxdemo.service.ProductService</t>
+  </si>
+  <si>
+    <t>[{"id":"d4504c33-f21d-4505-b9c0-bfd438614d83","name":"mock response for call to mongoTemplate.save","fieldTypeName":"org.springframework.data.mongodb.core.ReactiveMongoTemplate","sourceClassName":"org.unlogged.springwebfluxdemo.service.ProductService","fieldName":"mongoTemplate","methodName":"save","whenParameter":[{"name":"objectToSave","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Product"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.springframework.data.mongodb.core.ReactiveMongoTemplate#save#(T)Lreactor/core/publisher/Mono&lt;T&gt;;"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"b1b8ef6c-f837-47c1-a056-58adeb0566be","name":"mock response for call to mongoTemplate.findById","fieldTypeName":"org.springframework.data.mongodb.core.ReactiveMongoTemplate","sourceClassName":"org.unlogged.springwebfluxdemo.service.ProductService","fieldName":"mongoTemplate","methodName":"findById","whenParameter":[{"name":"id","type":"ANY_OF_TYPE","value":"java.lang.String"},{"name":"entityClass","type":"ANY_OF_TYPE","value":"java.lang.Class&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\":\"m\",\"name\":\"string\",\"price\":\"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.springframework.data.mongodb.core.ReactiveMongoTemplate#findById#(Ljava/lang/Object;Ljava/lang/Class&lt;T&gt;;)Lreactor/core/publisher/Mono&lt;T&gt;;"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"d9797fb4-1dee-43c3-bc23-34cc5252c4f3","name":"mock response for call to mongoTemplate.findAll","fieldTypeName":"org.springframework.data.mongodb.core.ReactiveMongoTemplate","sourceClassName":"org.unlogged.springwebfluxdemo.service.ProductService","fieldName":"mongoTemplate","methodName":"findAll","whenParameter":[{"name":"entityClass","type":"ANY_OF_TYPE","value":"java.lang.Class&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"[{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}]","returnValueType":"REAL","className":"reactor.core.publisher.Flux&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.springframework.data.mongodb.core.ReactiveMongoTemplate#findAll#(Ljava/lang/Class&lt;T&gt;;)Lreactor/core/publisher/Flux&lt;T&gt;;"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"bb7850ec-bdb4-40c7-a806-7e005f8a406d","name":"mock response for call to mongoTemplate.save","fieldTypeName":"org.springframework.data.mongodb.core.ReactiveMongoTemplate","sourceClassName":"org.unlogged.springwebfluxdemo.service.ProductService","fieldName":"mongoTemplate","methodName":"save","whenParameter":[{"name":"objectToSave","type":"ANY_OF_TYPE","value":"org.unlogged.springwebfluxdemo.model.Product"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"{\"id\": \"string\", \"name\": \"string\", \"price\": \"0\"}","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.springframework.data.mongodb.core.ReactiveMongoTemplate#save#(T)Lreactor/core/publisher/Mono&lt;T&gt;;"}]</t>
+  </si>
+  <si>
+    <t>[{"id":"9bdf27d4-3c03-4435-af47-eeff9aaa2ab9","name":"mock response for call to mongoTemplate.remove","fieldTypeName":"org.springframework.data.mongodb.core.ReactiveMongoTemplate","sourceClassName":"org.unlogged.springwebfluxdemo.service.ProductService","fieldName":"mongoTemplate","methodName":"remove","whenParameter":[{"name":"query","type":"ANY_OF_TYPE","value":"org.springframework.data.mongodb.core.query.Query"},{"name":"entityClass","type":"ANY_OF_TYPE","value":"java.lang.Class&lt;org.unlogged.springwebfluxdemo.model.Product&gt;"}],"thenParameter":[{"returnParameter":{"declaredMocks":[],"value":"null","returnValueType":"REAL","className":"reactor.core.publisher.Mono&lt;com.mongodb.client.result.DeleteResult&gt;"},"methodExitType":"NORMAL"}],"methodHashKey":"org.springframework.data.mongodb.core.ReactiveMongoTemplate#remove#(Lorg/springframework/data/mongodb/core/query/Query;Ljava/lang/Class&lt;?&gt;;)Lreactor/core/publisher/Mono&lt;Lcom/mongodb/client/result/DeleteResult;&gt;;"}]</t>
   </si>
 </sst>
 </file>
@@ -3472,7 +3748,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -3502,14 +3777,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3731,7 +4006,7 @@
     <col customWidth="1" min="2" max="2" width="69.0"/>
     <col customWidth="1" min="3" max="5" width="8.71"/>
     <col customWidth="1" min="6" max="6" width="34.29"/>
-    <col customWidth="1" min="7" max="21" width="8.71"/>
+    <col customWidth="1" min="7" max="22" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3797,7 +4072,7 @@
       <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3832,7 +4107,7 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3925,7 +4200,7 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -4100,7 +4375,7 @@
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -4170,7 +4445,7 @@
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4252,7 +4527,7 @@
       <c r="I15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -4287,7 +4562,7 @@
       <c r="I16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4380,7 +4655,7 @@
       <c r="E19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -4450,7 +4725,7 @@
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -4835,7 +5110,7 @@
       <c r="E32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -6130,7 +6405,7 @@
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G69" s="1" t="s">
@@ -6200,7 +6475,7 @@
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -6235,7 +6510,7 @@
       <c r="E72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -6270,7 +6545,7 @@
       <c r="E73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G73" s="1" t="s">
@@ -6305,7 +6580,7 @@
       <c r="E74" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G74" s="1" t="s">
@@ -6340,7 +6615,7 @@
       <c r="E75" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G75" s="1" t="s">
@@ -6375,7 +6650,7 @@
       <c r="E76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G76" s="1" t="s">
@@ -6410,7 +6685,7 @@
       <c r="E77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G77" s="1" t="s">
@@ -6445,7 +6720,7 @@
       <c r="E78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -6480,7 +6755,7 @@
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
@@ -6515,7 +6790,7 @@
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G80" s="1" t="s">
@@ -6550,7 +6825,7 @@
       <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G81" s="1" t="s">
@@ -6585,7 +6860,7 @@
       <c r="E82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -6620,7 +6895,7 @@
       <c r="E83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G83" s="1" t="s">
@@ -6655,7 +6930,7 @@
       <c r="E84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G84" s="1" t="s">
@@ -6690,7 +6965,7 @@
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G85" s="1" t="s">
@@ -6725,7 +7000,7 @@
       <c r="E86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G86" s="1" t="s">
@@ -6865,7 +7140,7 @@
       <c r="E90" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G90" s="1" t="s">
@@ -6900,7 +7175,7 @@
       <c r="E91" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G91" s="1" t="s">
@@ -6935,7 +7210,7 @@
       <c r="E92" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G92" s="1" t="s">
@@ -6970,7 +7245,7 @@
       <c r="E93" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -7005,7 +7280,7 @@
       <c r="E94" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -7040,7 +7315,7 @@
       <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G95" s="1" t="s">
@@ -7075,7 +7350,7 @@
       <c r="E96" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -7110,7 +7385,7 @@
       <c r="E97" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G97" s="1" t="s">
@@ -7145,7 +7420,7 @@
       <c r="E98" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G98" s="1" t="s">
@@ -7180,7 +7455,7 @@
       <c r="E99" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G99" s="1" t="s">
@@ -7215,7 +7490,7 @@
       <c r="E100" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G100" s="1" t="s">
@@ -7250,7 +7525,7 @@
       <c r="E101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G101" s="1" t="s">
@@ -7285,7 +7560,7 @@
       <c r="E102" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -7320,7 +7595,7 @@
       <c r="E103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G103" s="1" t="s">
@@ -7355,7 +7630,7 @@
       <c r="E104" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G104" s="1" t="s">
@@ -7390,7 +7665,7 @@
       <c r="E105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G105" s="1" t="s">
@@ -7460,7 +7735,7 @@
       <c r="E107" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G107" s="1" t="s">
@@ -7495,7 +7770,7 @@
       <c r="E108" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G108" s="1" t="s">
@@ -7530,7 +7805,7 @@
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G109" s="1" t="s">
@@ -7565,7 +7840,7 @@
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -7600,7 +7875,7 @@
       <c r="E111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G111" s="1" t="s">
@@ -7635,7 +7910,7 @@
       <c r="E112" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G112" s="1" t="s">
@@ -7670,7 +7945,7 @@
       <c r="E113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G113" s="1" t="s">
@@ -7705,7 +7980,7 @@
       <c r="E114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G114" s="1" t="s">
@@ -7740,7 +8015,7 @@
       <c r="E115" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G115" s="1" t="s">
@@ -7775,7 +8050,7 @@
       <c r="E116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G116" s="1" t="s">
@@ -7810,7 +8085,7 @@
       <c r="E117" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="F117" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G117" s="1" t="s">
@@ -7985,7 +8260,7 @@
       <c r="E122" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="F122" s="5" t="s">
+      <c r="F122" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G122" s="1" t="s">
@@ -8020,7 +8295,7 @@
       <c r="E123" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="F123" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G123" s="1" t="s">
@@ -8055,7 +8330,7 @@
       <c r="E124" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F124" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G124" s="1" t="s">
@@ -8090,7 +8365,7 @@
       <c r="E125" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F125" s="5" t="s">
+      <c r="F125" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G125" s="1" t="s">
@@ -8160,7 +8435,7 @@
       <c r="E127" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="F127" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G127" s="1" t="s">
@@ -8195,7 +8470,7 @@
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="F128" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G128" s="1" t="s">
@@ -8230,7 +8505,7 @@
       <c r="E129" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="F129" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G129" s="1" t="s">
@@ -8265,7 +8540,7 @@
       <c r="E130" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F130" s="5" t="s">
+      <c r="F130" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G130" s="1" t="s">
@@ -8300,7 +8575,7 @@
       <c r="E131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F131" s="5" t="s">
+      <c r="F131" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G131" s="1" t="s">
@@ -8335,7 +8610,7 @@
       <c r="E132" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F132" s="5" t="s">
+      <c r="F132" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G132" s="1" t="s">
@@ -8370,7 +8645,7 @@
       <c r="E133" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="F133" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G133" s="1" t="s">
@@ -8440,7 +8715,7 @@
       <c r="E135" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F135" s="5" t="s">
+      <c r="F135" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G135" s="1" t="s">
@@ -8545,7 +8820,7 @@
       <c r="E138" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="F138" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G138" s="1" t="s">
@@ -8580,7 +8855,7 @@
       <c r="E139" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="F139" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G139" s="1" t="s">
@@ -8615,7 +8890,7 @@
       <c r="E140" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="F140" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G140" s="1" t="s">
@@ -8650,7 +8925,7 @@
       <c r="E141" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F141" s="5" t="s">
+      <c r="F141" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G141" s="1" t="s">
@@ -8685,7 +8960,7 @@
       <c r="E142" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="F142" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G142" s="1" t="s">
@@ -8720,7 +8995,7 @@
       <c r="E143" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F143" s="5" t="s">
+      <c r="F143" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G143" s="1" t="s">
@@ -8755,7 +9030,7 @@
       <c r="E144" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G144" s="1" t="s">
@@ -8790,7 +9065,7 @@
       <c r="E145" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="F145" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G145" s="1" t="s">
@@ -8825,7 +9100,7 @@
       <c r="E146" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F146" s="5" t="s">
+      <c r="F146" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G146" s="1" t="s">
@@ -8860,7 +9135,7 @@
       <c r="E147" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F147" s="5" t="s">
+      <c r="F147" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G147" s="1" t="s">
@@ -9140,7 +9415,7 @@
       <c r="E155" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F155" s="5" t="s">
+      <c r="F155" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G155" s="1" t="s">
@@ -9175,7 +9450,7 @@
       <c r="E156" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="F156" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G156" s="1" t="s">
@@ -9187,7 +9462,7 @@
       <c r="I156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K156" s="1" t="s">
@@ -9210,7 +9485,7 @@
       <c r="E157" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F157" s="5" t="s">
+      <c r="F157" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G157" s="1" t="s">
@@ -9222,7 +9497,7 @@
       <c r="I157" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="J157" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K157" s="1" t="s">
@@ -9245,7 +9520,7 @@
       <c r="E158" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F158" s="5" t="s">
+      <c r="F158" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G158" s="1" t="s">
@@ -9257,7 +9532,7 @@
       <c r="I158" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="J158" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K158" s="1" t="s">
@@ -9280,7 +9555,7 @@
       <c r="E159" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G159" s="1" t="s">
@@ -9292,7 +9567,7 @@
       <c r="I159" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="J159" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K159" s="1" t="s">
@@ -9327,7 +9602,7 @@
       <c r="I160" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J160" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K160" s="1" t="s">
@@ -9362,7 +9637,7 @@
       <c r="I161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="J161" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K161" s="1" t="s">
@@ -9397,7 +9672,7 @@
       <c r="I162" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="J162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K162" s="1" t="s">
@@ -9490,7 +9765,7 @@
       <c r="E165" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="F165" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G165" s="1" t="s">
@@ -9525,7 +9800,7 @@
       <c r="E166" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="F166" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G166" s="1" t="s">
@@ -9560,7 +9835,7 @@
       <c r="E167" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F167" s="5" t="s">
+      <c r="F167" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G167" s="1" t="s">
@@ -9595,7 +9870,7 @@
       <c r="E168" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F168" s="5" t="s">
+      <c r="F168" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G168" s="1" t="s">
@@ -9840,7 +10115,7 @@
       <c r="E175" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="F175" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G175" s="1" t="s">
@@ -9875,7 +10150,7 @@
       <c r="E176" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="F176" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G176" s="1" t="s">
@@ -9910,7 +10185,7 @@
       <c r="E177" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="F177" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G177" s="1" t="s">
@@ -9945,7 +10220,7 @@
       <c r="E178" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F178" s="5" t="s">
+      <c r="F178" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G178" s="1" t="s">
@@ -9980,7 +10255,7 @@
       <c r="E179" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F179" s="5" t="s">
+      <c r="F179" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G179" s="1" t="s">
@@ -10015,7 +10290,7 @@
       <c r="E180" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="F180" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G180" s="1" t="s">
@@ -10050,7 +10325,7 @@
       <c r="E181" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F181" s="5" t="s">
+      <c r="F181" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G181" s="1" t="s">
@@ -10085,7 +10360,7 @@
       <c r="E182" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F182" s="5" t="s">
+      <c r="F182" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G182" s="1" t="s">
@@ -10155,7 +10430,7 @@
       <c r="E184" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F184" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G184" s="1" t="s">
@@ -10295,7 +10570,7 @@
       <c r="E188" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="F188" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G188" s="1" t="s">
@@ -10782,10 +11057,10 @@
       <c r="D202" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="F202" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G202" s="1" t="s">
@@ -10852,10 +11127,10 @@
       <c r="D204" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="F204" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G204" s="1" t="s">
@@ -10887,10 +11162,10 @@
       <c r="D205" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="F205" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G205" s="1" t="s">
@@ -10922,10 +11197,10 @@
       <c r="D206" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F206" s="5" t="s">
+      <c r="F206" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G206" s="1" t="s">
@@ -10957,10 +11232,10 @@
       <c r="D207" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="F207" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -10995,7 +11270,7 @@
       <c r="E208" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F208" s="5" t="s">
+      <c r="F208" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G208" s="1" t="s">
@@ -11030,7 +11305,7 @@
       <c r="E209" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="F209" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G209" s="1" t="s">
@@ -11065,7 +11340,7 @@
       <c r="E210" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F210" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G210" s="1" t="s">
@@ -11100,7 +11375,7 @@
       <c r="E211" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="F211" s="5" t="s">
+      <c r="F211" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G211" s="1" t="s">
@@ -11135,7 +11410,7 @@
       <c r="E212" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F212" s="5" t="s">
+      <c r="F212" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G212" s="1" t="s">
@@ -11170,7 +11445,7 @@
       <c r="E213" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="F213" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G213" s="1" t="s">
@@ -11240,7 +11515,7 @@
       <c r="E215" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F215" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G215" s="1" t="s">
@@ -11310,7 +11585,7 @@
       <c r="E217" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="F217" s="5" t="s">
+      <c r="F217" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -11520,7 +11795,7 @@
       <c r="E223" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="F223" s="5" t="s">
+      <c r="F223" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -11590,7 +11865,7 @@
       <c r="E225" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F225" s="5" t="s">
+      <c r="F225" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G225" s="1" t="s">
@@ -11625,7 +11900,7 @@
       <c r="E226" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F226" s="5" t="s">
+      <c r="F226" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G226" s="1" t="s">
@@ -11660,7 +11935,7 @@
       <c r="E227" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="F227" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -11695,7 +11970,7 @@
       <c r="E228" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F228" s="5" t="s">
+      <c r="F228" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -11800,7 +12075,7 @@
       <c r="E231" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="F231" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -11870,7 +12145,7 @@
       <c r="E233" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F233" s="5" t="s">
+      <c r="F233" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -11905,7 +12180,7 @@
       <c r="E234" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F234" s="5" t="s">
+      <c r="F234" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -11940,7 +12215,7 @@
       <c r="E235" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F235" s="5" t="s">
+      <c r="F235" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -11975,7 +12250,7 @@
       <c r="E236" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F236" s="5" t="s">
+      <c r="F236" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -12010,7 +12285,7 @@
       <c r="E237" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F237" s="5" t="s">
+      <c r="F237" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G237" s="1" t="s">
@@ -12045,7 +12320,7 @@
       <c r="E238" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F238" s="5" t="s">
+      <c r="F238" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G238" s="1" t="s">
@@ -12080,7 +12355,7 @@
       <c r="E239" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F239" s="5" t="s">
+      <c r="F239" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G239" s="1" t="s">
@@ -12115,7 +12390,7 @@
       <c r="E240" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F240" s="5" t="s">
+      <c r="F240" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G240" s="1" t="s">
@@ -12150,7 +12425,7 @@
       <c r="E241" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F241" s="5" t="s">
+      <c r="F241" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G241" s="1" t="s">
@@ -12220,7 +12495,7 @@
       <c r="E243" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F243" s="5" t="s">
+      <c r="F243" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G243" s="1" t="s">
@@ -12255,7 +12530,7 @@
       <c r="E244" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="F244" s="5" t="s">
+      <c r="F244" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G244" s="1" t="s">
@@ -12325,7 +12600,7 @@
       <c r="E246" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F246" s="5" t="s">
+      <c r="F246" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G246" s="1" t="s">
@@ -12360,7 +12635,7 @@
       <c r="E247" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F247" s="5" t="s">
+      <c r="F247" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G247" s="1" t="s">
@@ -12395,7 +12670,7 @@
       <c r="E248" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F248" s="5" t="s">
+      <c r="F248" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G248" s="1" t="s">
@@ -12430,7 +12705,7 @@
       <c r="E249" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F249" s="5" t="s">
+      <c r="F249" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G249" s="1" t="s">
@@ -12465,7 +12740,7 @@
       <c r="E250" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F250" s="5" t="s">
+      <c r="F250" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G250" s="1" t="s">
@@ -12500,7 +12775,7 @@
       <c r="E251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F251" s="5" t="s">
+      <c r="F251" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G251" s="1" t="s">
@@ -12535,7 +12810,7 @@
       <c r="E252" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F252" s="5" t="s">
+      <c r="F252" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G252" s="1" t="s">
@@ -12570,7 +12845,7 @@
       <c r="E253" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F253" s="5" t="s">
+      <c r="F253" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G253" s="1" t="s">
@@ -12605,7 +12880,7 @@
       <c r="E254" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F254" s="5" t="s">
+      <c r="F254" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G254" s="1" t="s">
@@ -12640,7 +12915,7 @@
       <c r="E255" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F255" s="5" t="s">
+      <c r="F255" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G255" s="1" t="s">
@@ -12675,7 +12950,7 @@
       <c r="E256" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F256" s="5" t="s">
+      <c r="F256" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G256" s="1" t="s">
@@ -12710,7 +12985,7 @@
       <c r="E257" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F257" s="5" t="s">
+      <c r="F257" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G257" s="1" t="s">
@@ -12745,7 +13020,7 @@
       <c r="E258" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F258" s="5" t="s">
+      <c r="F258" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G258" s="1" t="s">
@@ -12780,7 +13055,7 @@
       <c r="E259" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F259" s="5" t="s">
+      <c r="F259" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G259" s="1" t="s">
@@ -12815,7 +13090,7 @@
       <c r="E260" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="F260" s="5" t="s">
+      <c r="F260" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G260" s="1" t="s">
@@ -12850,7 +13125,7 @@
       <c r="E261" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F261" s="5" t="s">
+      <c r="F261" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G261" s="1" t="s">
@@ -12885,7 +13160,7 @@
       <c r="E262" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="F262" s="5" t="s">
+      <c r="F262" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G262" s="1" t="s">
@@ -12920,7 +13195,7 @@
       <c r="E263" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F263" s="5" t="s">
+      <c r="F263" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G263" s="1" t="s">
@@ -12955,7 +13230,7 @@
       <c r="E264" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F264" s="5" t="s">
+      <c r="F264" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G264" s="1" t="s">
@@ -12990,7 +13265,7 @@
       <c r="E265" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F265" s="5" t="s">
+      <c r="F265" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G265" s="1" t="s">
@@ -13025,7 +13300,7 @@
       <c r="E266" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="F266" s="5" t="s">
+      <c r="F266" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G266" s="1" t="s">
@@ -13060,7 +13335,7 @@
       <c r="E267" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F267" s="5" t="s">
+      <c r="F267" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G267" s="1" t="s">
@@ -13095,7 +13370,7 @@
       <c r="E268" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F268" s="5" t="s">
+      <c r="F268" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G268" s="1" t="s">
@@ -13130,7 +13405,7 @@
       <c r="E269" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F269" s="5" t="s">
+      <c r="F269" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G269" s="1" t="s">
@@ -13165,7 +13440,7 @@
       <c r="E270" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="F270" s="5" t="s">
+      <c r="F270" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G270" s="1" t="s">
@@ -13200,7 +13475,7 @@
       <c r="E271" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F271" s="5" t="s">
+      <c r="F271" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G271" s="1" t="s">
@@ -13235,7 +13510,7 @@
       <c r="E272" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F272" s="5" t="s">
+      <c r="F272" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G272" s="1" t="s">
@@ -13270,7 +13545,7 @@
       <c r="E273" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F273" s="5" t="s">
+      <c r="F273" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G273" s="1" t="s">
@@ -13305,7 +13580,7 @@
       <c r="E274" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F274" s="5" t="s">
+      <c r="F274" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G274" s="1" t="s">
@@ -13340,7 +13615,7 @@
       <c r="E275" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F275" s="5" t="s">
+      <c r="F275" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G275" s="1" t="s">
@@ -13375,7 +13650,7 @@
       <c r="E276" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="F276" s="5" t="s">
+      <c r="F276" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G276" s="1" t="s">
@@ -13410,7 +13685,7 @@
       <c r="E277" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F277" s="5" t="s">
+      <c r="F277" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G277" s="1" t="s">
@@ -13445,7 +13720,7 @@
       <c r="E278" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="F278" s="5" t="s">
+      <c r="F278" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G278" s="1" t="s">
@@ -13480,7 +13755,7 @@
       <c r="E279" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F279" s="5" t="s">
+      <c r="F279" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G279" s="1" t="s">
@@ -13515,7 +13790,7 @@
       <c r="E280" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="F280" s="5" t="s">
+      <c r="F280" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G280" s="1" t="s">
@@ -13550,7 +13825,7 @@
       <c r="E281" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F281" s="5" t="s">
+      <c r="F281" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G281" s="1" t="s">
@@ -13585,7 +13860,7 @@
       <c r="E282" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="F282" s="5" t="s">
+      <c r="F282" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G282" s="1" t="s">
@@ -13620,7 +13895,7 @@
       <c r="E283" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="F283" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G283" s="1" t="s">
@@ -13655,7 +13930,7 @@
       <c r="E284" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="F284" s="5" t="s">
+      <c r="F284" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G284" s="1" t="s">
@@ -13690,7 +13965,7 @@
       <c r="E285" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F285" s="5" t="s">
+      <c r="F285" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G285" s="1" t="s">
@@ -13725,7 +14000,7 @@
       <c r="E286" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F286" s="5" t="s">
+      <c r="F286" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G286" s="1" t="s">
@@ -13760,7 +14035,7 @@
       <c r="E287" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F287" s="5" t="s">
+      <c r="F287" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G287" s="1" t="s">
@@ -13795,7 +14070,7 @@
       <c r="E288" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="F288" s="5" t="s">
+      <c r="F288" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G288" s="1" t="s">
@@ -13830,7 +14105,7 @@
       <c r="E289" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F289" s="5" t="s">
+      <c r="F289" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G289" s="1" t="s">
@@ -13935,7 +14210,7 @@
       <c r="E292" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F292" s="5" t="s">
+      <c r="F292" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G292" s="1" t="s">
@@ -13970,7 +14245,7 @@
       <c r="E293" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F293" s="5" t="s">
+      <c r="F293" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G293" s="1" t="s">
@@ -14005,7 +14280,7 @@
       <c r="E294" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F294" s="5" t="s">
+      <c r="F294" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G294" s="1" t="s">
@@ -14075,7 +14350,7 @@
       <c r="E296" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F296" s="5" t="s">
+      <c r="F296" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G296" s="1" t="s">
@@ -14110,7 +14385,7 @@
       <c r="E297" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="F297" s="5" t="s">
+      <c r="F297" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G297" s="1" t="s">
@@ -14145,7 +14420,7 @@
       <c r="E298" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="F298" s="5" t="s">
+      <c r="F298" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G298" s="1" t="s">
@@ -14180,7 +14455,7 @@
       <c r="E299" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F299" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G299" s="1" t="s">
@@ -14215,7 +14490,7 @@
       <c r="E300" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F300" s="5" t="s">
+      <c r="F300" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G300" s="1" t="s">
@@ -14530,7 +14805,7 @@
       <c r="E309" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F309" s="5" t="s">
+      <c r="F309" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G309" s="1" t="s">
@@ -14565,7 +14840,7 @@
       <c r="E310" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F310" s="5" t="s">
+      <c r="F310" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G310" s="1" t="s">
@@ -14600,7 +14875,7 @@
       <c r="E311" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F311" s="5" t="s">
+      <c r="F311" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G311" s="1" t="s">
@@ -14635,7 +14910,7 @@
       <c r="E312" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F312" s="5" t="s">
+      <c r="F312" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G312" s="1" t="s">
@@ -14670,7 +14945,7 @@
       <c r="E313" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F313" s="5" t="s">
+      <c r="F313" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G313" s="1" t="s">
@@ -14705,7 +14980,7 @@
       <c r="E314" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F314" s="5" t="s">
+      <c r="F314" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G314" s="1" t="s">
@@ -15195,7 +15470,7 @@
       <c r="E328" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F328" s="5" t="s">
+      <c r="F328" s="2" t="s">
         <v>184</v>
       </c>
       <c r="G328" s="1" t="s">
@@ -15615,7 +15890,7 @@
       <c r="E340" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F340" s="5" t="s">
+      <c r="F340" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G340" s="1" t="s">
@@ -15650,7 +15925,7 @@
       <c r="E341" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F341" s="5" t="s">
+      <c r="F341" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G341" s="1" t="s">
@@ -15685,7 +15960,7 @@
       <c r="E342" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F342" s="5" t="s">
+      <c r="F342" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G342" s="1" t="s">
@@ -15720,7 +15995,7 @@
       <c r="E343" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F343" s="5" t="s">
+      <c r="F343" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G343" s="1" t="s">
@@ -15755,7 +16030,7 @@
       <c r="E344" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F344" s="5" t="s">
+      <c r="F344" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G344" s="1" t="s">
@@ -15790,7 +16065,7 @@
       <c r="E345" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F345" s="5" t="s">
+      <c r="F345" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G345" s="1" t="s">
@@ -15825,7 +16100,7 @@
       <c r="E346" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F346" s="5" t="s">
+      <c r="F346" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G346" s="1" t="s">
@@ -16840,7 +17115,7 @@
       <c r="E375" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G375" s="1" t="s">
@@ -16875,7 +17150,7 @@
       <c r="E376" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G376" s="1" t="s">
@@ -16910,7 +17185,7 @@
       <c r="E377" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F377" s="5" t="s">
+      <c r="F377" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G377" s="1" t="s">
@@ -16945,7 +17220,7 @@
       <c r="E378" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="F378" s="5" t="s">
+      <c r="F378" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G378" s="1" t="s">
@@ -16980,7 +17255,7 @@
       <c r="E379" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F379" s="5" t="s">
+      <c r="F379" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G379" s="1" t="s">
@@ -17015,7 +17290,7 @@
       <c r="E380" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="F380" s="5" t="s">
+      <c r="F380" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G380" s="1" t="s">
@@ -17050,7 +17325,7 @@
       <c r="E381" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F381" s="5" t="s">
+      <c r="F381" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G381" s="1" t="s">
@@ -17085,7 +17360,7 @@
       <c r="E382" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F382" s="5" t="s">
+      <c r="F382" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G382" s="1" t="s">
@@ -17120,7 +17395,7 @@
       <c r="E383" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F383" s="5" t="s">
+      <c r="F383" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G383" s="1" t="s">
@@ -17155,7 +17430,7 @@
       <c r="E384" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F384" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G384" s="1" t="s">
@@ -17190,7 +17465,7 @@
       <c r="E385" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F385" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G385" s="1" t="s">
@@ -17225,7 +17500,7 @@
       <c r="E386" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="F386" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G386" s="1" t="s">
@@ -17260,7 +17535,7 @@
       <c r="E387" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="F387" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G387" s="1" t="s">
@@ -17295,7 +17570,7 @@
       <c r="E388" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="F388" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G388" s="1" t="s">
@@ -17330,7 +17605,7 @@
       <c r="E389" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F389" s="5" t="s">
+      <c r="F389" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G389" s="1" t="s">
@@ -17365,7 +17640,7 @@
       <c r="E390" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="F390" s="5" t="s">
+      <c r="F390" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G390" s="1" t="s">
@@ -17400,7 +17675,7 @@
       <c r="E391" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F391" s="5" t="s">
+      <c r="F391" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G391" s="1" t="s">
@@ -17435,7 +17710,7 @@
       <c r="E392" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F392" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G392" s="1" t="s">
@@ -17470,7 +17745,7 @@
       <c r="E393" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F393" s="5" t="s">
+      <c r="F393" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G393" s="1" t="s">
@@ -17505,7 +17780,7 @@
       <c r="E394" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="F394" s="5" t="s">
+      <c r="F394" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G394" s="1" t="s">
@@ -17540,7 +17815,7 @@
       <c r="E395" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F395" s="5" t="s">
+      <c r="F395" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G395" s="1" t="s">
@@ -17575,7 +17850,7 @@
       <c r="E396" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F396" s="5" t="s">
+      <c r="F396" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G396" s="1" t="s">
@@ -17610,7 +17885,7 @@
       <c r="E397" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F397" s="5" t="s">
+      <c r="F397" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G397" s="1" t="s">
@@ -17645,7 +17920,7 @@
       <c r="E398" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F398" s="5" t="s">
+      <c r="F398" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G398" s="1" t="s">
@@ -17680,7 +17955,7 @@
       <c r="E399" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F399" s="5" t="s">
+      <c r="F399" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G399" s="1" t="s">
@@ -17715,7 +17990,7 @@
       <c r="E400" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="F400" s="5" t="s">
+      <c r="F400" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G400" s="1" t="s">
@@ -17750,7 +18025,7 @@
       <c r="E401" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="F401" s="5" t="s">
+      <c r="F401" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G401" s="1" t="s">
@@ -17785,7 +18060,7 @@
       <c r="E402" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="F402" s="5" t="s">
+      <c r="F402" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G402" s="1" t="s">
@@ -17820,7 +18095,7 @@
       <c r="E403" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="F403" s="5" t="s">
+      <c r="F403" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G403" s="1" t="s">
@@ -17855,7 +18130,7 @@
       <c r="E404" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F404" s="5" t="s">
+      <c r="F404" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G404" s="1" t="s">
@@ -17890,7 +18165,7 @@
       <c r="E405" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G405" s="1" t="s">
@@ -17925,7 +18200,7 @@
       <c r="E406" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="F406" s="5" t="s">
+      <c r="F406" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G406" s="1" t="s">
@@ -18065,7 +18340,7 @@
       <c r="E410" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F410" s="5" t="s">
+      <c r="F410" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G410" s="1" t="s">
@@ -18660,7 +18935,7 @@
       <c r="E427" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G427" s="1" t="s">
@@ -18692,10 +18967,10 @@
       <c r="D428" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E428" s="3" t="s">
+      <c r="E428" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="F428" s="5" t="s">
+      <c r="F428" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G428" s="1" t="s">
@@ -18730,7 +19005,7 @@
       <c r="E429" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F429" s="5" t="s">
+      <c r="F429" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G429" s="1" t="s">
@@ -18765,7 +19040,7 @@
       <c r="E430" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F430" s="5" t="s">
+      <c r="F430" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G430" s="1" t="s">
@@ -18800,7 +19075,7 @@
       <c r="E431" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G431" s="1" t="s">
@@ -18835,7 +19110,7 @@
       <c r="E432" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F432" s="5" t="s">
+      <c r="F432" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G432" s="1" t="s">
@@ -18870,7 +19145,7 @@
       <c r="E433" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F433" s="5" t="s">
+      <c r="F433" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G433" s="1" t="s">
@@ -18905,7 +19180,7 @@
       <c r="E434" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="F434" s="5" t="s">
+      <c r="F434" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G434" s="1" t="s">
@@ -18940,7 +19215,7 @@
       <c r="E435" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F435" s="5" t="s">
+      <c r="F435" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G435" s="1" t="s">
@@ -18975,7 +19250,7 @@
       <c r="E436" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F436" s="5" t="s">
+      <c r="F436" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G436" s="1" t="s">
@@ -19010,7 +19285,7 @@
       <c r="E437" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F437" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G437" s="1" t="s">
@@ -19045,7 +19320,7 @@
       <c r="E438" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F438" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G438" s="1" t="s">
@@ -19080,7 +19355,7 @@
       <c r="E439" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F439" s="5" t="s">
+      <c r="F439" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G439" s="1" t="s">
@@ -19115,7 +19390,7 @@
       <c r="E440" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F440" s="5" t="s">
+      <c r="F440" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G440" s="1" t="s">
@@ -19150,7 +19425,7 @@
       <c r="E441" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F441" s="5" t="s">
+      <c r="F441" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G441" s="1" t="s">
@@ -19185,7 +19460,7 @@
       <c r="E442" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F442" s="5" t="s">
+      <c r="F442" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G442" s="1" t="s">
@@ -19220,7 +19495,7 @@
       <c r="E443" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F443" s="5" t="s">
+      <c r="F443" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G443" s="1" t="s">
@@ -19255,7 +19530,7 @@
       <c r="E444" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="F444" s="5" t="s">
+      <c r="F444" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G444" s="1" t="s">
@@ -19290,7 +19565,7 @@
       <c r="E445" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F445" s="5" t="s">
+      <c r="F445" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G445" s="1" t="s">
@@ -19325,7 +19600,7 @@
       <c r="E446" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F446" s="5" t="s">
+      <c r="F446" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G446" s="1" t="s">
@@ -19360,7 +19635,7 @@
       <c r="E447" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F447" s="5" t="s">
+      <c r="F447" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G447" s="1" t="s">
@@ -19395,7 +19670,7 @@
       <c r="E448" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F448" s="5" t="s">
+      <c r="F448" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G448" s="1" t="s">
@@ -19415,85 +19690,1192 @@
       </c>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="F449" s="2"/>
+      <c r="A449" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G449" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H449" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I449" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J449" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K449" s="4"/>
+      <c r="L449" s="4"/>
+      <c r="M449" s="4"/>
+      <c r="N449" s="4"/>
+      <c r="O449" s="4"/>
+      <c r="P449" s="4"/>
+      <c r="Q449" s="4"/>
+      <c r="R449" s="4"/>
+      <c r="S449" s="4"/>
+      <c r="T449" s="4"/>
+      <c r="U449" s="4"/>
+      <c r="V449" s="4"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="F450" s="2"/>
+      <c r="A450" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D450" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E450" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F450" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H450" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I450" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J450" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K450" s="4"/>
+      <c r="L450" s="4"/>
+      <c r="M450" s="4"/>
+      <c r="N450" s="4"/>
+      <c r="O450" s="4"/>
+      <c r="P450" s="4"/>
+      <c r="Q450" s="4"/>
+      <c r="R450" s="4"/>
+      <c r="S450" s="4"/>
+      <c r="T450" s="4"/>
+      <c r="U450" s="4"/>
+      <c r="V450" s="4"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="F451" s="2"/>
+      <c r="A451" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H451" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I451" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J451" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="K451" s="4"/>
+      <c r="L451" s="4"/>
+      <c r="M451" s="4"/>
+      <c r="N451" s="4"/>
+      <c r="O451" s="4"/>
+      <c r="P451" s="4"/>
+      <c r="Q451" s="4"/>
+      <c r="R451" s="4"/>
+      <c r="S451" s="4"/>
+      <c r="T451" s="4"/>
+      <c r="U451" s="4"/>
+      <c r="V451" s="4"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="F452" s="2"/>
+      <c r="A452" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D452" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G452" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H452" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I452" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J452" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="K452" s="4"/>
+      <c r="L452" s="4"/>
+      <c r="M452" s="4"/>
+      <c r="N452" s="4"/>
+      <c r="O452" s="4"/>
+      <c r="P452" s="4"/>
+      <c r="Q452" s="4"/>
+      <c r="R452" s="4"/>
+      <c r="S452" s="4"/>
+      <c r="T452" s="4"/>
+      <c r="U452" s="4"/>
+      <c r="V452" s="4"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="F453" s="2"/>
+      <c r="A453" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D453" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E453" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G453" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H453" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I453" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J453" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K453" s="4"/>
+      <c r="L453" s="4"/>
+      <c r="M453" s="4"/>
+      <c r="N453" s="4"/>
+      <c r="O453" s="4"/>
+      <c r="P453" s="4"/>
+      <c r="Q453" s="4"/>
+      <c r="R453" s="4"/>
+      <c r="S453" s="4"/>
+      <c r="T453" s="4"/>
+      <c r="U453" s="4"/>
+      <c r="V453" s="4"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="F454" s="2"/>
+      <c r="A454" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D454" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F454" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G454" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H454" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I454" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J454" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K454" s="4"/>
+      <c r="L454" s="4"/>
+      <c r="M454" s="4"/>
+      <c r="N454" s="4"/>
+      <c r="O454" s="4"/>
+      <c r="P454" s="4"/>
+      <c r="Q454" s="4"/>
+      <c r="R454" s="4"/>
+      <c r="S454" s="4"/>
+      <c r="T454" s="4"/>
+      <c r="U454" s="4"/>
+      <c r="V454" s="4"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="F455" s="2"/>
+      <c r="A455" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D455" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F455" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="H455" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I455" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J455" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K455" s="4"/>
+      <c r="L455" s="4"/>
+      <c r="M455" s="4"/>
+      <c r="N455" s="4"/>
+      <c r="O455" s="4"/>
+      <c r="P455" s="4"/>
+      <c r="Q455" s="4"/>
+      <c r="R455" s="4"/>
+      <c r="S455" s="4"/>
+      <c r="T455" s="4"/>
+      <c r="U455" s="4"/>
+      <c r="V455" s="4"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="F456" s="2"/>
+      <c r="A456" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G456" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H456" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I456" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J456" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K456" s="4"/>
+      <c r="L456" s="4"/>
+      <c r="M456" s="4"/>
+      <c r="N456" s="4"/>
+      <c r="O456" s="4"/>
+      <c r="P456" s="4"/>
+      <c r="Q456" s="4"/>
+      <c r="R456" s="4"/>
+      <c r="S456" s="4"/>
+      <c r="T456" s="4"/>
+      <c r="U456" s="4"/>
+      <c r="V456" s="4"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="F457" s="2"/>
+      <c r="A457" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D457" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E457" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G457" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H457" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I457" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J457" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K457" s="4"/>
+      <c r="L457" s="4"/>
+      <c r="M457" s="4"/>
+      <c r="N457" s="4"/>
+      <c r="O457" s="4"/>
+      <c r="P457" s="4"/>
+      <c r="Q457" s="4"/>
+      <c r="R457" s="4"/>
+      <c r="S457" s="4"/>
+      <c r="T457" s="4"/>
+      <c r="U457" s="4"/>
+      <c r="V457" s="4"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="F458" s="2"/>
+      <c r="A458" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D458" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E458" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G458" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H458" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I458" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J458" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K458" s="4"/>
+      <c r="L458" s="4"/>
+      <c r="M458" s="4"/>
+      <c r="N458" s="4"/>
+      <c r="O458" s="4"/>
+      <c r="P458" s="4"/>
+      <c r="Q458" s="4"/>
+      <c r="R458" s="4"/>
+      <c r="S458" s="4"/>
+      <c r="T458" s="4"/>
+      <c r="U458" s="4"/>
+      <c r="V458" s="4"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="F459" s="2"/>
+      <c r="A459" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D459" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G459" s="4" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H459" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I459" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J459" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="K459" s="4"/>
+      <c r="L459" s="4"/>
+      <c r="M459" s="4"/>
+      <c r="N459" s="4"/>
+      <c r="O459" s="4"/>
+      <c r="P459" s="4"/>
+      <c r="Q459" s="4"/>
+      <c r="R459" s="4"/>
+      <c r="S459" s="4"/>
+      <c r="T459" s="4"/>
+      <c r="U459" s="4"/>
+      <c r="V459" s="4"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="F460" s="2"/>
+      <c r="A460" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D460" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F460" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H460" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I460" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J460" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="K460" s="4"/>
+      <c r="L460" s="4"/>
+      <c r="M460" s="4"/>
+      <c r="N460" s="4"/>
+      <c r="O460" s="4"/>
+      <c r="P460" s="4"/>
+      <c r="Q460" s="4"/>
+      <c r="R460" s="4"/>
+      <c r="S460" s="4"/>
+      <c r="T460" s="4"/>
+      <c r="U460" s="4"/>
+      <c r="V460" s="4"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="F461" s="2"/>
+      <c r="A461" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D461" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E461" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G461" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H461" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I461" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J461" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K461" s="4"/>
+      <c r="L461" s="4"/>
+      <c r="M461" s="4"/>
+      <c r="N461" s="4"/>
+      <c r="O461" s="4"/>
+      <c r="P461" s="4"/>
+      <c r="Q461" s="4"/>
+      <c r="R461" s="4"/>
+      <c r="S461" s="4"/>
+      <c r="T461" s="4"/>
+      <c r="U461" s="4"/>
+      <c r="V461" s="4"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="F462" s="2"/>
+      <c r="A462" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D462" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E462" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F462" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H462" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I462" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J462" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="K462" s="4"/>
+      <c r="L462" s="4"/>
+      <c r="M462" s="4"/>
+      <c r="N462" s="4"/>
+      <c r="O462" s="4"/>
+      <c r="P462" s="4"/>
+      <c r="Q462" s="4"/>
+      <c r="R462" s="4"/>
+      <c r="S462" s="4"/>
+      <c r="T462" s="4"/>
+      <c r="U462" s="4"/>
+      <c r="V462" s="4"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="F463" s="2"/>
+      <c r="A463" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D463" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F463" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H463" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I463" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J463" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K463" s="4"/>
+      <c r="L463" s="4"/>
+      <c r="M463" s="4"/>
+      <c r="N463" s="4"/>
+      <c r="O463" s="4"/>
+      <c r="P463" s="4"/>
+      <c r="Q463" s="4"/>
+      <c r="R463" s="4"/>
+      <c r="S463" s="4"/>
+      <c r="T463" s="4"/>
+      <c r="U463" s="4"/>
+      <c r="V463" s="4"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="F464" s="2"/>
+      <c r="A464" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D464" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E464" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H464" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I464" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J464" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="K464" s="4"/>
+      <c r="L464" s="4"/>
+      <c r="M464" s="4"/>
+      <c r="N464" s="4"/>
+      <c r="O464" s="4"/>
+      <c r="P464" s="4"/>
+      <c r="Q464" s="4"/>
+      <c r="R464" s="4"/>
+      <c r="S464" s="4"/>
+      <c r="T464" s="4"/>
+      <c r="U464" s="4"/>
+      <c r="V464" s="4"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="F465" s="2"/>
+      <c r="A465" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E465" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H465" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I465" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J465" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="K465" s="4"/>
+      <c r="L465" s="4"/>
+      <c r="M465" s="4"/>
+      <c r="N465" s="4"/>
+      <c r="O465" s="4"/>
+      <c r="P465" s="4"/>
+      <c r="Q465" s="4"/>
+      <c r="R465" s="4"/>
+      <c r="S465" s="4"/>
+      <c r="T465" s="4"/>
+      <c r="U465" s="4"/>
+      <c r="V465" s="4"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="F466" s="2"/>
+      <c r="A466" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D466" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F466" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H466" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I466" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J466" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K466" s="4"/>
+      <c r="L466" s="4"/>
+      <c r="M466" s="4"/>
+      <c r="N466" s="4"/>
+      <c r="O466" s="4"/>
+      <c r="P466" s="4"/>
+      <c r="Q466" s="4"/>
+      <c r="R466" s="4"/>
+      <c r="S466" s="4"/>
+      <c r="T466" s="4"/>
+      <c r="U466" s="4"/>
+      <c r="V466" s="4"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="F467" s="2"/>
+      <c r="A467" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H467" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I467" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J467" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K467" s="4"/>
+      <c r="L467" s="4"/>
+      <c r="M467" s="4"/>
+      <c r="N467" s="4"/>
+      <c r="O467" s="4"/>
+      <c r="P467" s="4"/>
+      <c r="Q467" s="4"/>
+      <c r="R467" s="4"/>
+      <c r="S467" s="4"/>
+      <c r="T467" s="4"/>
+      <c r="U467" s="4"/>
+      <c r="V467" s="4"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="F468" s="2"/>
+      <c r="A468" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D468" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E468" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H468" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I468" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J468" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K468" s="4"/>
+      <c r="L468" s="4"/>
+      <c r="M468" s="4"/>
+      <c r="N468" s="4"/>
+      <c r="O468" s="4"/>
+      <c r="P468" s="4"/>
+      <c r="Q468" s="4"/>
+      <c r="R468" s="4"/>
+      <c r="S468" s="4"/>
+      <c r="T468" s="4"/>
+      <c r="U468" s="4"/>
+      <c r="V468" s="4"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="F469" s="2"/>
+      <c r="A469" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D469" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E469" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G469" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H469" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I469" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J469" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="K469" s="4"/>
+      <c r="L469" s="4"/>
+      <c r="M469" s="4"/>
+      <c r="N469" s="4"/>
+      <c r="O469" s="4"/>
+      <c r="P469" s="4"/>
+      <c r="Q469" s="4"/>
+      <c r="R469" s="4"/>
+      <c r="S469" s="4"/>
+      <c r="T469" s="4"/>
+      <c r="U469" s="4"/>
+      <c r="V469" s="4"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="F470" s="2"/>
+      <c r="A470" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D470" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E470" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F470" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H470" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I470" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J470" s="5" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K470" s="4"/>
+      <c r="L470" s="4"/>
+      <c r="M470" s="4"/>
+      <c r="N470" s="4"/>
+      <c r="O470" s="4"/>
+      <c r="P470" s="4"/>
+      <c r="Q470" s="4"/>
+      <c r="R470" s="4"/>
+      <c r="S470" s="4"/>
+      <c r="T470" s="4"/>
+      <c r="U470" s="4"/>
+      <c r="V470" s="4"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="F471" s="2"/>
+      <c r="A471" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D471" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F471" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H471" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I471" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J471" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K471" s="4"/>
+      <c r="L471" s="4"/>
+      <c r="M471" s="4"/>
+      <c r="N471" s="4"/>
+      <c r="O471" s="4"/>
+      <c r="P471" s="4"/>
+      <c r="Q471" s="4"/>
+      <c r="R471" s="4"/>
+      <c r="S471" s="4"/>
+      <c r="T471" s="4"/>
+      <c r="U471" s="4"/>
+      <c r="V471" s="4"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="F472" s="2"/>
+      <c r="A472" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D472" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E472" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H472" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I472" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J472" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="K472" s="4"/>
+      <c r="L472" s="4"/>
+      <c r="M472" s="4"/>
+      <c r="N472" s="4"/>
+      <c r="O472" s="4"/>
+      <c r="P472" s="4"/>
+      <c r="Q472" s="4"/>
+      <c r="R472" s="4"/>
+      <c r="S472" s="4"/>
+      <c r="T472" s="4"/>
+      <c r="U472" s="4"/>
+      <c r="V472" s="4"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="F473" s="2"/>
+      <c r="A473" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D473" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E473" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F473" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H473" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I473" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J473" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K473" s="4"/>
+      <c r="L473" s="4"/>
+      <c r="M473" s="4"/>
+      <c r="N473" s="4"/>
+      <c r="O473" s="4"/>
+      <c r="P473" s="4"/>
+      <c r="Q473" s="4"/>
+      <c r="R473" s="4"/>
+      <c r="S473" s="4"/>
+      <c r="T473" s="4"/>
+      <c r="U473" s="4"/>
+      <c r="V473" s="4"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="F474" s="2"/>
+      <c r="A474" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D474" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E474" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F474" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G474" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H474" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I474" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J474" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K474" s="4"/>
+      <c r="L474" s="4"/>
+      <c r="M474" s="4"/>
+      <c r="N474" s="4"/>
+      <c r="O474" s="4"/>
+      <c r="P474" s="4"/>
+      <c r="Q474" s="4"/>
+      <c r="R474" s="4"/>
+      <c r="S474" s="4"/>
+      <c r="T474" s="4"/>
+      <c r="U474" s="4"/>
+      <c r="V474" s="4"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="F475" s="2"/>
+      <c r="A475" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D475" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E475" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H475" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I475" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J475" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K475" s="4"/>
+      <c r="L475" s="4"/>
+      <c r="M475" s="4"/>
+      <c r="N475" s="4"/>
+      <c r="O475" s="4"/>
+      <c r="P475" s="4"/>
+      <c r="Q475" s="4"/>
+      <c r="R475" s="4"/>
+      <c r="S475" s="4"/>
+      <c r="T475" s="4"/>
+      <c r="U475" s="4"/>
+      <c r="V475" s="4"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
       <c r="F476" s="2"/>

--- a/src/test/resources/auto-test-resources/webflux-demo-unit-resources.xlsx
+++ b/src/test/resources/auto-test-resources/webflux-demo-unit-resources.xlsx
@@ -3769,7 +3769,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3785,6 +3785,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -20057,8 +20060,8 @@
       <c r="E457" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="F457" s="2" t="s">
-        <v>15</v>
+      <c r="F457" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="G457" s="5" t="s">
         <v>1042</v>
@@ -20365,8 +20368,8 @@
       <c r="E464" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="F464" s="2" t="s">
-        <v>15</v>
+      <c r="F464" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G464" s="5" t="s">
         <v>28</v>
@@ -20629,8 +20632,8 @@
       <c r="E470" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="F470" s="2" t="s">
-        <v>15</v>
+      <c r="F470" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G470" s="5" t="s">
         <v>28</v>
@@ -20805,8 +20808,8 @@
       <c r="E474" s="4" t="s">
         <v>1063</v>
       </c>
-      <c r="F474" s="2" t="s">
-        <v>15</v>
+      <c r="F474" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G474" s="5" t="s">
         <v>28</v>
@@ -20849,8 +20852,8 @@
       <c r="E475" s="4" t="s">
         <v>1023</v>
       </c>
-      <c r="F475" s="2" t="s">
-        <v>15</v>
+      <c r="F475" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G475" s="5" t="s">
         <v>28</v>
